--- a/RAS06-Pulse11/RAS6_pulse11.xlsx
+++ b/RAS06-Pulse11/RAS6_pulse11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/cloudstor/Shared/RAS_QCd_final_formatted/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sha359/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE7632-6016-A748-82D9-EA3B66263067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6854F0-45E7-534B-A845-F61C6C9CBBE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="2320" windowWidth="25880" windowHeight="17920" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="25880" windowHeight="17540" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setup" sheetId="1" r:id="rId1"/>
@@ -33,16 +33,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">nutrients!$A$1:$B$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">setup!$A$1:$J$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -3632,7 +3624,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4071,7 +4063,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4355,7 +4347,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4676,7 +4668,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5149,7 +5141,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6753,7 +6745,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7226,7 +7218,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8240,7 +8232,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8775,7 +8767,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9366,7 +9358,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9616,7 +9608,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10072,7 +10064,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10326,7 +10318,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -28295,8 +28287,8 @@
   </sheetPr>
   <dimension ref="A1:AE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="X9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10:AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -28865,14 +28857,14 @@
         <v>2306.6514693401768</v>
       </c>
       <c r="Y10" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="147">
         <f>'DIC alk'!Q4</f>
         <v>2188.4464045788286</v>
       </c>
       <c r="AA10" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="102"/>
       <c r="AC10" s="102"/>
@@ -28955,14 +28947,14 @@
         <v>2307.5451017913479</v>
       </c>
       <c r="Y11" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="147">
         <f>'DIC alk'!Q5</f>
         <v>2196.3516585211555</v>
       </c>
       <c r="AA11" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB11" s="102"/>
       <c r="AC11" s="102"/>
@@ -29042,14 +29034,14 @@
         <v>2300.7280354895861</v>
       </c>
       <c r="Y12" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="147">
         <f>'DIC alk'!Q6</f>
         <v>2156.6632537063747</v>
       </c>
       <c r="AA12" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:31" s="153" customFormat="1" ht="15">
@@ -29125,14 +29117,14 @@
         <v>2293.3943019094099</v>
       </c>
       <c r="Y13" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="147">
         <f>'DIC alk'!Q7</f>
         <v>2160.6216008933493</v>
       </c>
       <c r="AA13" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="153" customFormat="1" ht="15">
@@ -29208,14 +29200,14 @@
         <v>2268.1536743852671</v>
       </c>
       <c r="Y14" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="147">
         <f>'DIC alk'!Q8</f>
         <v>2133.6627797676247</v>
       </c>
       <c r="AA14" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:31" s="153" customFormat="1" ht="15">
@@ -29291,14 +29283,14 @@
         <v>2291.9193986744103</v>
       </c>
       <c r="Y15" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15" s="147">
         <f>'DIC alk'!Q9</f>
         <v>2163.734084240074</v>
       </c>
       <c r="AA15" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:31" s="153" customFormat="1" ht="15">
@@ -29374,14 +29366,14 @@
         <v>2278.3856604526577</v>
       </c>
       <c r="Y16" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z16" s="147">
         <f>'DIC alk'!Q10</f>
         <v>2164.9544762684122</v>
       </c>
       <c r="AA16" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29457,7 +29449,7 @@
         <v>2289.4973142111294</v>
       </c>
       <c r="Y17" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z17" s="147">
         <f>'DIC alk'!Q11</f>
@@ -29540,14 +29532,14 @@
         <v>2283.3120488877439</v>
       </c>
       <c r="Y18" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z18" s="147">
         <f>'DIC alk'!Q12</f>
         <v>2147.7511957063671</v>
       </c>
       <c r="AA18" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29623,14 +29615,14 @@
         <v>2285.0117231254876</v>
       </c>
       <c r="Y19" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z19" s="147">
         <f>'DIC alk'!Q13</f>
         <v>2187.115309997348</v>
       </c>
       <c r="AA19" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29706,14 +29698,14 @@
         <v>2287.0804531399726</v>
       </c>
       <c r="Y20" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="147">
         <f>'DIC alk'!Q14</f>
         <v>2190.3560314417177</v>
       </c>
       <c r="AA20" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29789,14 +29781,14 @@
         <v>2272.5449680290171</v>
       </c>
       <c r="Y21" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z21" s="147">
         <f>'DIC alk'!Q15</f>
         <v>2161.7575075376885</v>
       </c>
       <c r="AA21" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29872,14 +29864,14 @@
         <v>2317.8644232190691</v>
       </c>
       <c r="Y22" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z22" s="147">
         <f>'DIC alk'!Q16</f>
         <v>2142.8927400332955</v>
       </c>
       <c r="AA22" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:27" s="153" customFormat="1" ht="15">
@@ -29955,7 +29947,7 @@
         <v>2275.1942386231358</v>
       </c>
       <c r="Y23" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z23" s="147">
         <f>'DIC alk'!Q17</f>
@@ -30038,14 +30030,14 @@
         <v>2276.3242001274652</v>
       </c>
       <c r="Y24" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="147">
         <f>'DIC alk'!Q18</f>
         <v>2143.6242226709983</v>
       </c>
       <c r="AA24" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:27" s="153" customFormat="1" ht="15">
@@ -30121,14 +30113,14 @@
         <v>2280.9209302049371</v>
       </c>
       <c r="Y25" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="147">
         <f>'DIC alk'!Q19</f>
         <v>2135.3387831353648</v>
       </c>
       <c r="AA25" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:27" s="153" customFormat="1" ht="15">
@@ -30204,14 +30196,14 @@
         <v>2280.5411018198392</v>
       </c>
       <c r="Y26" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z26" s="147">
         <f>'DIC alk'!Q20</f>
         <v>2161.2903059025516</v>
       </c>
       <c r="AA26" s="102">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:27" s="153" customFormat="1" ht="15">
@@ -30287,7 +30279,7 @@
         <v>2278.6228219200093</v>
       </c>
       <c r="Y27" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z27" s="147">
         <f>'DIC alk'!Q21</f>
@@ -30370,7 +30362,7 @@
         <v>2283.6629743011681</v>
       </c>
       <c r="Y28" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="147">
         <f>'DIC alk'!Q22</f>
@@ -30453,7 +30445,7 @@
         <v>2284.0668447553585</v>
       </c>
       <c r="Y29" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z29" s="147">
         <f>'DIC alk'!Q23</f>
@@ -30536,7 +30528,7 @@
         <v>2278.5624214427876</v>
       </c>
       <c r="Y30" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z30" s="147">
         <f>'DIC alk'!Q24</f>
@@ -30619,7 +30611,7 @@
         <v>2288.3999603126358</v>
       </c>
       <c r="Y31" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="147">
         <f>'DIC alk'!Q25</f>
@@ -30702,7 +30694,7 @@
         <v>2287.5029059195545</v>
       </c>
       <c r="Y32" s="102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z32" s="147">
         <f>'DIC alk'!Q26</f>
@@ -30785,7 +30777,7 @@
         <v>2307.573144787892</v>
       </c>
       <c r="Y33" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z33" s="147">
         <f>'DIC alk'!Q27</f>
